--- a/src/test/java/techproed/resources/Capitals.xlsx
+++ b/src/test/java/techproed/resources/Capitals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Techproeducation\JAVA\INTELLIJ_STUDIES\MY-MAVEN-JUNIT-LESSON-STUDIES\MY-MAVEN-JUNIT-LESSON-STUDIES\src\test\java\techproed\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B2211-A7C7-496E-8D8E-ECB0702E0769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -85,12 +86,28 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>712816</t>
+  </si>
+  <si>
+    <t>2161000</t>
+  </si>
+  <si>
+    <t>8982000</t>
+  </si>
+  <si>
+    <t>5663000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -130,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,59 +366,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -408,7 +441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -416,7 +449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -424,7 +457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -432,7 +465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -440,7 +473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>

--- a/src/test/java/techproed/resources/Capitals.xlsx
+++ b/src/test/java/techproed/resources/Capitals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Techproeducation\JAVA\INTELLIJ_STUDIES\MY-MAVEN-JUNIT-LESSON-STUDIES\MY-MAVEN-JUNIT-LESSON-STUDIES\src\test\java\techproed\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B2211-A7C7-496E-8D8E-ECB0702E0769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336E23B-C008-4CDD-B016-361666D5081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>fjasdkfgja</t>
+  </si>
+  <si>
+    <t>kgfsdlo</t>
   </si>
   <si>
     <t>NUFUS</t>
@@ -147,11 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,15 +375,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,10 +391,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -397,10 +402,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -408,10 +413,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -419,10 +424,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -430,10 +435,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -441,7 +446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -449,7 +454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -457,7 +462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -465,7 +470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -473,12 +478,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
